--- a/model/results/mix0_ggpos_h2pos/b_tech.xlsx
+++ b/model/results/mix0_ggpos_h2pos/b_tech.xlsx
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -5834,10 +5834,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.612244897959183</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>7.056492479780365e-15</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -7460,25 +7460,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -8025,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -9162,10 +9162,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9241,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.612244897959183</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -10788,25 +10788,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -10879,7 +10879,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.429301943162828e-14</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -11353,7 +11353,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -12569,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.612244897959183</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -14055,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.04965325636733e-14</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -14116,25 +14116,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.305413071033834e-14</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -14681,7 +14681,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -15821,7 +15821,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -15897,7 +15897,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.612244897959183</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -17307,7 +17307,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>7.056492479780365e-15</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -17444,25 +17444,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.9999999999999657</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.429301943162828e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -18085,7 +18085,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -18465,7 +18465,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -18769,7 +18769,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -18994,10 +18994,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.000000000000002</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6122448979591821</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -19070,10 +19070,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -19146,10 +19146,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -19222,10 +19222,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -20565,7 +20565,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000008</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -20641,7 +20641,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000008</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -20717,7 +20717,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000008</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -20772,7 +20772,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -20784,16 +20784,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -20869,7 +20869,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -21185,7 +21185,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -21413,7 +21413,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -21489,7 +21489,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6122448979591846</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -21717,7 +21717,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -21793,7 +21793,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -21945,7 +21945,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22097,7 +22097,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -22173,7 +22173,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22325,7 +22325,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -22401,7 +22401,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -22629,7 +22629,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000008</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000008</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000008</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -24100,7 +24100,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -24112,16 +24112,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.000000000000007</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -24197,7 +24197,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>1.000000000000014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -24589,7 +24589,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -24890,10 +24890,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -25194,10 +25194,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -25346,10 +25346,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -25498,10 +25498,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -25574,10 +25574,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -25650,10 +25650,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6122448979591821</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -25954,10 +25954,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -26030,10 +26030,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -26106,10 +26106,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -27221,7 +27221,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000008</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27297,7 +27297,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27373,7 +27373,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000008</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27428,7 +27428,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27440,16 +27440,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.000000000000007</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27525,7 +27525,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000008</v>
+        <v>1.000000000000014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27841,7 +27841,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -27917,7 +27917,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -27993,7 +27993,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -28069,7 +28069,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28145,7 +28145,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.612244897959182</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28297,7 +28297,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28370,10 +28370,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.000000000000002</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28446,7 +28446,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.000000000000002</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0.6122448979591836</v>
@@ -28522,10 +28522,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28598,10 +28598,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28674,10 +28674,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -28750,10 +28750,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.000000000000002</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28829,7 +28829,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -28902,10 +28902,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -28981,7 +28981,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29054,10 +29054,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.000000000000002</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -29282,10 +29282,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29434,10 +29434,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -30549,7 +30549,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000008</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -30616,16 +30616,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999999999999929</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>7.056492479780365e-15</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -30701,7 +30701,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000008</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -30756,7 +30756,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -30768,16 +30768,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -30853,7 +30853,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -31166,10 +31166,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -31245,7 +31245,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -31318,10 +31318,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31394,10 +31394,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591814</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -31473,7 +31473,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.612244897959182</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -31546,10 +31546,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -31622,10 +31622,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -31698,10 +31698,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -31774,10 +31774,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -31850,10 +31850,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591814</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -31926,10 +31926,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -32002,10 +32002,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -32078,10 +32078,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -32230,10 +32230,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -32382,10 +32382,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -32458,10 +32458,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -32686,10 +32686,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M30" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -32762,10 +32762,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M31" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -32838,10 +32838,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M32" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -33877,7 +33877,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000008</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -33953,7 +33953,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34029,7 +34029,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000008</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -34084,7 +34084,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -34096,16 +34096,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.000000000000007</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -34181,7 +34181,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000008</v>
+        <v>1.000000000000014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -34494,10 +34494,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -34573,7 +34573,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -34649,7 +34649,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -34722,10 +34722,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>1.000000000000005</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591814</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.612244897959182</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6122448979591846</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35102,10 +35102,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35178,10 +35178,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591814</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -35406,10 +35406,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -35482,10 +35482,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -35558,10 +35558,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -35634,10 +35634,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -35710,10 +35710,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -35786,10 +35786,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -35862,10 +35862,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M28" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -35938,10 +35938,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M29" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36014,10 +36014,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M30" t="n">
-        <v>0.6122448979591846</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36090,10 +36090,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M31" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -36166,10 +36166,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M32" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37412,7 +37412,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -40533,7 +40533,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000008</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -40600,16 +40600,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999999999999929</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>7.056492479780365e-15</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -40685,7 +40685,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000008</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -40740,7 +40740,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -40752,16 +40752,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.000000000000007</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -40837,7 +40837,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000008</v>
+        <v>1.000000000000014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -41150,10 +41150,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591855</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -41229,7 +41229,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -41305,7 +41305,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -41378,10 +41378,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591852</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -41454,10 +41454,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591855</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -41530,10 +41530,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -41606,10 +41606,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591855</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -41682,10 +41682,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591855</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -41758,10 +41758,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591855</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -41834,10 +41834,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591852</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -41910,10 +41910,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591855</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -41986,10 +41986,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -42062,10 +42062,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591855</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -42138,10 +42138,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591855</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -42214,10 +42214,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -42290,10 +42290,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591855</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -42366,10 +42366,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591855</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -42442,10 +42442,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -42518,10 +42518,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M28" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -42594,10 +42594,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M29" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.6122448979591855</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -42670,10 +42670,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M30" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -42746,10 +42746,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M31" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -42822,10 +42822,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>1.000000000000006</v>
       </c>
       <c r="M32" t="n">
-        <v>0.6122448979591836</v>
+        <v>0.612244897959181</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -44068,7 +44068,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -47396,7 +47396,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -50508,16 +50508,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -50724,13 +50724,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -50745,7 +50745,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3135053766718626</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -50821,7 +50821,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -53836,13 +53836,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -54052,13 +54052,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -56684,7 +56684,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -56836,7 +56836,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -57164,13 +57164,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -57240,13 +57240,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -57380,13 +57380,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -60012,7 +60012,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -60164,7 +60164,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -60492,13 +60492,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -60708,25 +60708,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -60796,13 +60796,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -61273,7 +61273,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -62106,7 +62106,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="M23" t="n">
         <v>0.6122448979591836</v>
@@ -62410,10 +62410,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -62489,7 +62489,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.612244897959183</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -63340,7 +63340,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -63492,7 +63492,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -64036,25 +64036,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -64601,7 +64601,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6122448979591825</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -65738,10 +65738,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="M27" t="n">
-        <v>0.6122448979591822</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -65817,7 +65817,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.612244897959183</v>
+        <v>0.6122448979591836</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -66668,7 +66668,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -66820,7 +66820,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
